--- a/Results/ger_sex.xlsx
+++ b/Results/ger_sex.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andri\Documents\GitHub\Fairness-AC-ADV\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C15C8C-3CFC-4D42-A317-9E196BA357D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF5ABCE-2244-4450-8410-1891E6E56336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{64D887AD-4E8F-4FF4-87D3-EC1F8B43E4F3}"/>
+    <workbookView xWindow="9480" yWindow="5715" windowWidth="28770" windowHeight="15300" xr2:uid="{64D887AD-4E8F-4FF4-87D3-EC1F8B43E4F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$144</definedName>
   </definedNames>
   <calcPr calcId="181029" calcOnSave="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="421">
   <si>
     <t>model</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Accuracy-y-val</t>
   </si>
   <si>
-    <t>AUC-A-val</t>
-  </si>
-  <si>
     <t>bal-acc-val</t>
   </si>
   <si>
@@ -109,6 +106,1191 @@
   </si>
   <si>
     <t>FAD-prob</t>
+  </si>
+  <si>
+    <t>CLFR</t>
+  </si>
+  <si>
+    <t>LURMI</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.0005</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>PYCO_diff</t>
+  </si>
+  <si>
+    <t>0.7389795688384211</t>
+  </si>
+  <si>
+    <t>0.7125550819362325</t>
+  </si>
+  <si>
+    <t>0.5648557350358465</t>
+  </si>
+  <si>
+    <t>0.6701501662545745</t>
+  </si>
+  <si>
+    <t>0.6389614808048828</t>
+  </si>
+  <si>
+    <t>0.5167712927382606</t>
+  </si>
+  <si>
+    <t>0.7297073602572509</t>
+  </si>
+  <si>
+    <t>0.6994090030380766</t>
+  </si>
+  <si>
+    <t>0.726296219542006</t>
+  </si>
+  <si>
+    <t>0.7333333317219379</t>
+  </si>
+  <si>
+    <t>0.671312559772077</t>
+  </si>
+  <si>
+    <t>0.6962488506232514</t>
+  </si>
+  <si>
+    <t>0.6679268600082925</t>
+  </si>
+  <si>
+    <t>0.7027815592695689</t>
+  </si>
+  <si>
+    <t>0.7725311711960219</t>
+  </si>
+  <si>
+    <t>0.6995350717865084</t>
+  </si>
+  <si>
+    <t>0.7048131616303563</t>
+  </si>
+  <si>
+    <t>0.6866667078191298</t>
+  </si>
+  <si>
+    <t>0.5143947336195039</t>
+  </si>
+  <si>
+    <t>0.3835191543102763</t>
+  </si>
+  <si>
+    <t>0.614678392848905</t>
+  </si>
+  <si>
+    <t>0.6867395445214953</t>
+  </si>
+  <si>
+    <t>0.7430036184802108</t>
+  </si>
+  <si>
+    <t>0.6855018943384752</t>
+  </si>
+  <si>
+    <t>0.7688494113800969</t>
+  </si>
+  <si>
+    <t>0.693333333328962</t>
+  </si>
+  <si>
+    <t>0.7903325759122564</t>
+  </si>
+  <si>
+    <t>0.7466666666653877</t>
+  </si>
+  <si>
+    <t>0.6798613303459698</t>
+  </si>
+  <si>
+    <t>0.6414722815617587</t>
+  </si>
+  <si>
+    <t>0.7626523445563411</t>
+  </si>
+  <si>
+    <t>0.6800000000002548</t>
+  </si>
+  <si>
+    <t>0.7531501746525183</t>
+  </si>
+  <si>
+    <t>0.733333332536267</t>
+  </si>
+  <si>
+    <t>0.7690559801685442</t>
+  </si>
+  <si>
+    <t>0.7266666666660396</t>
+  </si>
+  <si>
+    <t>0.7324932879586693</t>
+  </si>
+  <si>
+    <t>0.7066666666474948</t>
+  </si>
+  <si>
+    <t>0.7510844866758539</t>
+  </si>
+  <si>
+    <t>0.6866666666667836</t>
+  </si>
+  <si>
+    <t>0.741395179050764</t>
+  </si>
+  <si>
+    <t>0.7024296780920773</t>
+  </si>
+  <si>
+    <t>0.4699082305328733</t>
+  </si>
+  <si>
+    <t>0.6251150550698839</t>
+  </si>
+  <si>
+    <t>0.5965524983533559</t>
+  </si>
+  <si>
+    <t>0.5496026162422598</t>
+  </si>
+  <si>
+    <t>0.7347845802926842</t>
+  </si>
+  <si>
+    <t>0.699382976024453</t>
+  </si>
+  <si>
+    <t>0.6791443842527282</t>
+  </si>
+  <si>
+    <t>0.6666666665347167</t>
+  </si>
+  <si>
+    <t>0.6405044466638131</t>
+  </si>
+  <si>
+    <t>0.6737563767071956</t>
+  </si>
+  <si>
+    <t>0.659151858220261</t>
+  </si>
+  <si>
+    <t>0.6911210201798448</t>
+  </si>
+  <si>
+    <t>0.7352404623791625</t>
+  </si>
+  <si>
+    <t>0.6815200446723303</t>
+  </si>
+  <si>
+    <t>0.704496040733095</t>
+  </si>
+  <si>
+    <t>0.6600001215381941</t>
+  </si>
+  <si>
+    <t>0.4945526545730587</t>
+  </si>
+  <si>
+    <t>0.39774647326851076</t>
+  </si>
+  <si>
+    <t>0.5921501607593327</t>
+  </si>
+  <si>
+    <t>0.643318995572186</t>
+  </si>
+  <si>
+    <t>0.7304942688318811</t>
+  </si>
+  <si>
+    <t>0.6987643903153428</t>
+  </si>
+  <si>
+    <t>0.7658942360691332</t>
+  </si>
+  <si>
+    <t>0.7000000011319115</t>
+  </si>
+  <si>
+    <t>0.7674787086537836</t>
+  </si>
+  <si>
+    <t>0.7333333333318606</t>
+  </si>
+  <si>
+    <t>0.659563417267694</t>
+  </si>
+  <si>
+    <t>0.598875355769829</t>
+  </si>
+  <si>
+    <t>0.7387601505237372</t>
+  </si>
+  <si>
+    <t>0.7066666666659551</t>
+  </si>
+  <si>
+    <t>0.7492572778186872</t>
+  </si>
+  <si>
+    <t>0.6999999991094948</t>
+  </si>
+  <si>
+    <t>0.7617349970282018</t>
+  </si>
+  <si>
+    <t>0.733333333331801</t>
+  </si>
+  <si>
+    <t>0.7589621702385487</t>
+  </si>
+  <si>
+    <t>0.7133333313082645</t>
+  </si>
+  <si>
+    <t>0.7447019211717267</t>
+  </si>
+  <si>
+    <t>0.7266666666662077</t>
+  </si>
+  <si>
+    <t>19.67722052308942</t>
+  </si>
+  <si>
+    <t>0.8065621059063498</t>
+  </si>
+  <si>
+    <t>2.9699080464059717</t>
+  </si>
+  <si>
+    <t>0.0682808347708481</t>
+  </si>
+  <si>
+    <t>0.03664468379777345</t>
+  </si>
+  <si>
+    <t>10.11861275880441</t>
+  </si>
+  <si>
+    <t>0.057672752116702114</t>
+  </si>
+  <si>
+    <t>3.485623200821325e-07</t>
+  </si>
+  <si>
+    <t>1.160867060619938</t>
+  </si>
+  <si>
+    <t>0.5292675729389973</t>
+  </si>
+  <si>
+    <t>0.08467187473074692</t>
+  </si>
+  <si>
+    <t>0.1108727715679238</t>
+  </si>
+  <si>
+    <t>0.08885541926886058</t>
+  </si>
+  <si>
+    <t>0.07039599640202644</t>
+  </si>
+  <si>
+    <t>0.0632164224821175</t>
+  </si>
+  <si>
+    <t>0.05635365878949822</t>
+  </si>
+  <si>
+    <t>0.06161516064547045</t>
+  </si>
+  <si>
+    <t>0.018816450100274953</t>
+  </si>
+  <si>
+    <t>0.010596546678391413</t>
+  </si>
+  <si>
+    <t>0.04448717337113584</t>
+  </si>
+  <si>
+    <t>0.07126799390312441</t>
+  </si>
+  <si>
+    <t>0.031038810093636363</t>
+  </si>
+  <si>
+    <t>3.440026978080202e-09</t>
+  </si>
+  <si>
+    <t>0.018493859760930684</t>
+  </si>
+  <si>
+    <t>0.06904206492760251</t>
+  </si>
+  <si>
+    <t>0.03446504128862017</t>
+  </si>
+  <si>
+    <t>0.06200941972115962</t>
+  </si>
+  <si>
+    <t>0.036891679749702026</t>
+  </si>
+  <si>
+    <t>0.07211422050246376</t>
+  </si>
+  <si>
+    <t>0.08908948194579495</t>
+  </si>
+  <si>
+    <t>0.07770800571776237</t>
+  </si>
+  <si>
+    <t>0.07888540031382373</t>
+  </si>
+  <si>
+    <t>0.07770800685542131</t>
+  </si>
+  <si>
+    <t>0.058477237048375943</t>
+  </si>
+  <si>
+    <t>0.30941882945732807</t>
+  </si>
+  <si>
+    <t>0.16937913706474636</t>
+  </si>
+  <si>
+    <t>1.6370093072747902</t>
+  </si>
+  <si>
+    <t>0.06192523628828627</t>
+  </si>
+  <si>
+    <t>0.055555554086461956</t>
+  </si>
+  <si>
+    <t>0.05041389722905148</t>
+  </si>
+  <si>
+    <t>0.05997595796306102</t>
+  </si>
+  <si>
+    <t>0.09743957242107287</t>
+  </si>
+  <si>
+    <t>5.882905685435877e-07</t>
+  </si>
+  <si>
+    <t>0.07886121078750707</t>
+  </si>
+  <si>
+    <t>0.16133410527311307</t>
+  </si>
+  <si>
+    <t>0.15975225283564928</t>
+  </si>
+  <si>
+    <t>0.2916666553070992</t>
+  </si>
+  <si>
+    <t>0.10410688975462264</t>
+  </si>
+  <si>
+    <t>0.12878787878685932</t>
+  </si>
+  <si>
+    <t>0.1468531468524051</t>
+  </si>
+  <si>
+    <t>0.09999999456263334</t>
+  </si>
+  <si>
+    <t>0.07878787878736818</t>
+  </si>
+  <si>
+    <t>2.3532081769979323</t>
+  </si>
+  <si>
+    <t>0.15864215129759648</t>
+  </si>
+  <si>
+    <t>6.667300971440764</t>
+  </si>
+  <si>
+    <t>0.7336847722462819</t>
+  </si>
+  <si>
+    <t>0.08011032388649143</t>
+  </si>
+  <si>
+    <t>2.8756652420555517</t>
+  </si>
+  <si>
+    <t>0.09052619429858558</t>
+  </si>
+  <si>
+    <t>5.931055411615692e-07</t>
+  </si>
+  <si>
+    <t>2.617111682906137</t>
+  </si>
+  <si>
+    <t>0.1209569378724124</t>
+  </si>
+  <si>
+    <t>0.5038827838916285</t>
+  </si>
+  <si>
+    <t>0.034358288770443376</t>
+  </si>
+  <si>
+    <t>0.13364539578406176</t>
+  </si>
+  <si>
+    <t>0.047335997458035635</t>
+  </si>
+  <si>
+    <t>0.15248593930136267</t>
+  </si>
+  <si>
+    <t>0.0952194357362635</t>
+  </si>
+  <si>
+    <t>0.06882937582981892</t>
+  </si>
+  <si>
+    <t>0.051703928131703165</t>
+  </si>
+  <si>
+    <t>0.017017775463653607</t>
+  </si>
+  <si>
+    <t>0.054992610030696526</t>
+  </si>
+  <si>
+    <t>0.003803983204768672</t>
+  </si>
+  <si>
+    <t>0.07153583588789073</t>
+  </si>
+  <si>
+    <t>0.04782299311120358</t>
+  </si>
+  <si>
+    <t>0.022150889997040218</t>
+  </si>
+  <si>
+    <t>1.0047729553040002e-07</t>
+  </si>
+  <si>
+    <t>0.013679257113005456</t>
+  </si>
+  <si>
+    <t>0.06425550376165501</t>
+  </si>
+  <si>
+    <t>0.020264641228567807</t>
+  </si>
+  <si>
+    <t>0.030879398097529938</t>
+  </si>
+  <si>
+    <t>0.08749160886006414</t>
+  </si>
+  <si>
+    <t>0.07204643580406653</t>
+  </si>
+  <si>
+    <t>0.048109196688268706</t>
+  </si>
+  <si>
+    <t>0.020586260689731323</t>
+  </si>
+  <si>
+    <t>0.1031550682476722</t>
+  </si>
+  <si>
+    <t>0.04206757730858661</t>
+  </si>
+  <si>
+    <t>0.09084806444343867</t>
+  </si>
+  <si>
+    <t>4.662854467761919</t>
+  </si>
+  <si>
+    <t>0.22658801270259754</t>
+  </si>
+  <si>
+    <t>0.08729762161767589</t>
+  </si>
+  <si>
+    <t>0.2197710546150446</t>
+  </si>
+  <si>
+    <t>0.11851854060933278</t>
+  </si>
+  <si>
+    <t>0.8234260442065225</t>
+  </si>
+  <si>
+    <t>0.15231974738517193</t>
+  </si>
+  <si>
+    <t>0.20814338191753218</t>
+  </si>
+  <si>
+    <t>9.247099122237801e-07</t>
+  </si>
+  <si>
+    <t>0.15578176767072746</t>
+  </si>
+  <si>
+    <t>0.21092676620708908</t>
+  </si>
+  <si>
+    <t>0.06271188420674602</t>
+  </si>
+  <si>
+    <t>0.10714285305844866</t>
+  </si>
+  <si>
+    <t>0.20454545454541898</t>
+  </si>
+  <si>
+    <t>0.09035023546729763</t>
+  </si>
+  <si>
+    <t>0.053030303030799725</t>
+  </si>
+  <si>
+    <t>0.20875420652073517</t>
+  </si>
+  <si>
+    <t>0.060606060610708196</t>
+  </si>
+  <si>
+    <t>0.2545454597221147</t>
+  </si>
+  <si>
+    <t>0.0984848484845996</t>
+  </si>
+  <si>
+    <t>PYCO_non_diff</t>
+  </si>
+  <si>
+    <t>0.6983040434842813</t>
+  </si>
+  <si>
+    <t>0.7132628030648049</t>
+  </si>
+  <si>
+    <t>0.7419121438370438</t>
+  </si>
+  <si>
+    <t>0.7051879995742477</t>
+  </si>
+  <si>
+    <t>0.7141773814135973</t>
+  </si>
+  <si>
+    <t>0.6844621659171354</t>
+  </si>
+  <si>
+    <t>0.7182400330509026</t>
+  </si>
+  <si>
+    <t>0.6866666666665532</t>
+  </si>
+  <si>
+    <t>0.7217653884339029</t>
+  </si>
+  <si>
+    <t>0.7047977209627873</t>
+  </si>
+  <si>
+    <t>0.7225779797556723</t>
+  </si>
+  <si>
+    <t>0.6866666666667974</t>
+  </si>
+  <si>
+    <t>0.6506920057837904</t>
+  </si>
+  <si>
+    <t>0.6866666666663254</t>
+  </si>
+  <si>
+    <t>0.7168570031323634</t>
+  </si>
+  <si>
+    <t>0.6880763591678538</t>
+  </si>
+  <si>
+    <t>0.543242532052849</t>
+  </si>
+  <si>
+    <t>0.3378986106878355</t>
+  </si>
+  <si>
+    <t>0.749431935549698</t>
+  </si>
+  <si>
+    <t>0.6999999999999892</t>
+  </si>
+  <si>
+    <t>0.777525304688977</t>
+  </si>
+  <si>
+    <t>0.7333333333333046</t>
+  </si>
+  <si>
+    <t>0.6837430283039749</t>
+  </si>
+  <si>
+    <t>0.6866666666677405</t>
+  </si>
+  <si>
+    <t>0.7663705845888937</t>
+  </si>
+  <si>
+    <t>0.6933333333332781</t>
+  </si>
+  <si>
+    <t>0.7405494732423568</t>
+  </si>
+  <si>
+    <t>0.6866666666647194</t>
+  </si>
+  <si>
+    <t>0.7828960945267294</t>
+  </si>
+  <si>
+    <t>0.7599999977740647</t>
+  </si>
+  <si>
+    <t>0.7711216690530465</t>
+  </si>
+  <si>
+    <t>0.7199999999647797</t>
+  </si>
+  <si>
+    <t>0.7839289377213722</t>
+  </si>
+  <si>
+    <t>0.7266666643201992</t>
+  </si>
+  <si>
+    <t>0.7479859533140183</t>
+  </si>
+  <si>
+    <t>0.713333333332533</t>
+  </si>
+  <si>
+    <t>0.745093988841265</t>
+  </si>
+  <si>
+    <t>0.7066666666657484</t>
+  </si>
+  <si>
+    <t>0.7504647800011867</t>
+  </si>
+  <si>
+    <t>0.7533333333292715</t>
+  </si>
+  <si>
+    <t>0.6947777140903795</t>
+  </si>
+  <si>
+    <t>0.6779111389192336</t>
+  </si>
+  <si>
+    <t>0.7289038730122025</t>
+  </si>
+  <si>
+    <t>0.7006113837297713</t>
+  </si>
+  <si>
+    <t>0.7156804857486723</t>
+  </si>
+  <si>
+    <t>0.6752825146062932</t>
+  </si>
+  <si>
+    <t>0.7007328183797843</t>
+  </si>
+  <si>
+    <t>0.6666666666665725</t>
+  </si>
+  <si>
+    <t>0.7128832417797432</t>
+  </si>
+  <si>
+    <t>0.6875788674827337</t>
+  </si>
+  <si>
+    <t>0.7280649633583319</t>
+  </si>
+  <si>
+    <t>0.6600000000001323</t>
+  </si>
+  <si>
+    <t>0.6712220241627819</t>
+  </si>
+  <si>
+    <t>0.6599999999996208</t>
+  </si>
+  <si>
+    <t>0.7241040502322478</t>
+  </si>
+  <si>
+    <t>0.6797448920767312</t>
+  </si>
+  <si>
+    <t>0.6220552556770839</t>
+  </si>
+  <si>
+    <t>0.37473711491738515</t>
+  </si>
+  <si>
+    <t>0.7783719548412005</t>
+  </si>
+  <si>
+    <t>0.7399999999995912</t>
+  </si>
+  <si>
+    <t>0.7906516141806548</t>
+  </si>
+  <si>
+    <t>0.7466666666662309</t>
+  </si>
+  <si>
+    <t>0.6914240443665062</t>
+  </si>
+  <si>
+    <t>0.6600000000027779</t>
+  </si>
+  <si>
+    <t>0.7682709447405675</t>
+  </si>
+  <si>
+    <t>0.733333333332192</t>
+  </si>
+  <si>
+    <t>0.632402455939553</t>
+  </si>
+  <si>
+    <t>0.6599999999979053</t>
+  </si>
+  <si>
+    <t>0.737373737055385</t>
+  </si>
+  <si>
+    <t>0.6733333332327541</t>
+  </si>
+  <si>
+    <t>0.7544068132361443</t>
+  </si>
+  <si>
+    <t>0.7333333333176862</t>
+  </si>
+  <si>
+    <t>0.7447019232422589</t>
+  </si>
+  <si>
+    <t>0.7133333364037635</t>
+  </si>
+  <si>
+    <t>0.7692612398485087</t>
+  </si>
+  <si>
+    <t>0.7533333333312847</t>
+  </si>
+  <si>
+    <t>0.7322242028071992</t>
+  </si>
+  <si>
+    <t>0.6866666666662409</t>
+  </si>
+  <si>
+    <t>0.7151911269437741</t>
+  </si>
+  <si>
+    <t>0.6866666666602477</t>
+  </si>
+  <si>
+    <t>2.3474437336090115</t>
+  </si>
+  <si>
+    <t>0.07936139947186471</t>
+  </si>
+  <si>
+    <t>0.26351329503841786</t>
+  </si>
+  <si>
+    <t>2.0996203368852727e-13</t>
+  </si>
+  <si>
+    <t>5.303270937018701</t>
+  </si>
+  <si>
+    <t>1.0298283331892881e-12</t>
+  </si>
+  <si>
+    <t>2.1926110941799928e-13</t>
+  </si>
+  <si>
+    <t>0.14189114183211682</t>
+  </si>
+  <si>
+    <t>1.1649416225932263</t>
+  </si>
+  <si>
+    <t>0.07272727272718195</t>
+  </si>
+  <si>
+    <t>0.02248931624490191</t>
+  </si>
+  <si>
+    <t>1.0409834030744745e-11</t>
+  </si>
+  <si>
+    <t>3.422714400637722e-11</t>
+  </si>
+  <si>
+    <t>0.030067567917875626</t>
+  </si>
+  <si>
+    <t>0.048388773410347745</t>
+  </si>
+  <si>
+    <t>0.059440356648274406</t>
+  </si>
+  <si>
+    <t>0.06392716257875493</t>
+  </si>
+  <si>
+    <t>0.08521166126795332</t>
+  </si>
+  <si>
+    <t>0.03173678689673848</t>
+  </si>
+  <si>
+    <t>0.05422715983872556</t>
+  </si>
+  <si>
+    <t>0.07752871529985872</t>
+  </si>
+  <si>
+    <t>1.3459545833008558e-13</t>
+  </si>
+  <si>
+    <t>0.053678046794507585</t>
+  </si>
+  <si>
+    <t>8.580210466818337e-13</t>
+  </si>
+  <si>
+    <t>1.4850880840843674e-13</t>
+  </si>
+  <si>
+    <t>0.04365365342759386</t>
+  </si>
+  <si>
+    <t>0.014539906457615158</t>
+  </si>
+  <si>
+    <t>0.05180533751952514</t>
+  </si>
+  <si>
+    <t>0.0663265306124203</t>
+  </si>
+  <si>
+    <t>2.1277183898762407e-12</t>
+  </si>
+  <si>
+    <t>0.0007849293570517832</t>
+  </si>
+  <si>
+    <t>3.003334499730627e-11</t>
+  </si>
+  <si>
+    <t>0.10478806758870227</t>
+  </si>
+  <si>
+    <t>0.0843799057636468</t>
+  </si>
+  <si>
+    <t>0.08555729214145454</t>
+  </si>
+  <si>
+    <t>0.060832025117323406</t>
+  </si>
+  <si>
+    <t>0.08673469387820157</t>
+  </si>
+  <si>
+    <t>0.0945839873903126</t>
+  </si>
+  <si>
+    <t>0.7526516727976121</t>
+  </si>
+  <si>
+    <t>0.13774818590481025</t>
+  </si>
+  <si>
+    <t>0.07052550471317498</t>
+  </si>
+  <si>
+    <t>2.1415664812025698e-13</t>
+  </si>
+  <si>
+    <t>0.23038532944333695</t>
+  </si>
+  <si>
+    <t>1.300004906940344e-12</t>
+  </si>
+  <si>
+    <t>3.653211242986352e-13</t>
+  </si>
+  <si>
+    <t>0.13443149512463107</t>
+  </si>
+  <si>
+    <t>0.10839385127104499</t>
+  </si>
+  <si>
+    <t>0.09999999999999239</t>
+  </si>
+  <si>
+    <t>0.004273504274062673</t>
+  </si>
+  <si>
+    <t>6.426852755431252e-12</t>
+  </si>
+  <si>
+    <t>0.2250000000094084</t>
+  </si>
+  <si>
+    <t>1.2148768436376812e-11</t>
+  </si>
+  <si>
+    <t>1.6542330582447819e-09</t>
+  </si>
+  <si>
+    <t>0.05000000004631478</t>
+  </si>
+  <si>
+    <t>0.08730158371871406</t>
+  </si>
+  <si>
+    <t>0.08080808083819548</t>
+  </si>
+  <si>
+    <t>0.08421052631931156</t>
+  </si>
+  <si>
+    <t>4.265248101838713</t>
+  </si>
+  <si>
+    <t>1.2233128553839707</t>
+  </si>
+  <si>
+    <t>1.6969088522431794</t>
+  </si>
+  <si>
+    <t>54.499999999900595</t>
+  </si>
+  <si>
+    <t>4.1340302303286505</t>
+  </si>
+  <si>
+    <t>9.574478541530734e-13</t>
+  </si>
+  <si>
+    <t>6.41834585889032e-13</t>
+  </si>
+  <si>
+    <t>0.23981233652649336</t>
+  </si>
+  <si>
+    <t>29.63259079632091</t>
+  </si>
+  <si>
+    <t>0.21975806451492122</t>
+  </si>
+  <si>
+    <t>0.31238977072943713</t>
+  </si>
+  <si>
+    <t>1.2253620536257117e-11</t>
+  </si>
+  <si>
+    <t>0.1992930456789333</t>
+  </si>
+  <si>
+    <t>2.6776969255304713e-11</t>
+  </si>
+  <si>
+    <t>0.04187952362754999</t>
+  </si>
+  <si>
+    <t>0.10038793110554411</t>
+  </si>
+  <si>
+    <t>0.03341178958302643</t>
+  </si>
+  <si>
+    <t>0.1360739756046073</t>
+  </si>
+  <si>
+    <t>0.0655494511630384</t>
+  </si>
+  <si>
+    <t>0.03431759202548048</t>
+  </si>
+  <si>
+    <t>0.018348774552981513</t>
+  </si>
+  <si>
+    <t>0.06943995422450489</t>
+  </si>
+  <si>
+    <t>0.037317521800795936</t>
+  </si>
+  <si>
+    <t>0.009174311926683628</t>
+  </si>
+  <si>
+    <t>0.030615710272622578</t>
+  </si>
+  <si>
+    <t>1.2714658105964591e-12</t>
+  </si>
+  <si>
+    <t>2.158841261332929e-13</t>
+  </si>
+  <si>
+    <t>0.032767761767505</t>
+  </si>
+  <si>
+    <t>0.038531192839001596</t>
+  </si>
+  <si>
+    <t>0.04833296039387748</t>
+  </si>
+  <si>
+    <t>0.011411948982162301</t>
+  </si>
+  <si>
+    <t>6.5562554145714945e-12</t>
+  </si>
+  <si>
+    <t>0.05124188856517854</t>
+  </si>
+  <si>
+    <t>1.6020228298044493e-11</t>
+  </si>
+  <si>
+    <t>0.03580219351506521</t>
+  </si>
+  <si>
+    <t>0.12418885647674259</t>
+  </si>
+  <si>
+    <t>0.0022376476550633718</t>
+  </si>
+  <si>
+    <t>0.025061535019714618</t>
+  </si>
+  <si>
+    <t>0.08771537256741178</t>
+  </si>
+  <si>
+    <t>0.04206757668374447</t>
+  </si>
+  <si>
+    <t>0.22387204288487217</t>
+  </si>
+  <si>
+    <t>0.08634979815763498</t>
+  </si>
+  <si>
+    <t>0.2708751943997247</t>
+  </si>
+  <si>
+    <t>0.9999999999984951</t>
+  </si>
+  <si>
+    <t>0.12140242020155463</t>
+  </si>
+  <si>
+    <t>9.781573015629273e-13</t>
+  </si>
+  <si>
+    <t>1.0275146315759707e-12</t>
+  </si>
+  <si>
+    <t>0.07629824675126391</t>
+  </si>
+  <si>
+    <t>0.13285137637018649</t>
+  </si>
+  <si>
+    <t>0.3749999999977504</t>
+  </si>
+  <si>
+    <t>0.46428571428526294</t>
+  </si>
+  <si>
+    <t>1.313849606298177e-11</t>
+  </si>
+  <si>
+    <t>0.32857142858195115</t>
+  </si>
+  <si>
+    <t>3.523929437451649e-11</t>
+  </si>
+  <si>
+    <t>0.08333333120294865</t>
+  </si>
+  <si>
+    <t>0.19827586216315984</t>
+  </si>
+  <si>
+    <t>0.05015676192952976</t>
+  </si>
+  <si>
+    <t>0.2083333333404329</t>
+  </si>
+  <si>
+    <t>0.09538461539155807</t>
+  </si>
+  <si>
+    <t>0.054545454541464436</t>
+  </si>
+  <si>
+    <t>ACC-A-val</t>
   </si>
 </sst>
 </file>
@@ -118,13 +1300,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -152,10 +1339,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,10 +1667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658A47D1-770B-4ACE-8CF2-34F5E6F51689}">
-  <dimension ref="A1:P88"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:P144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="S63" sqref="S63"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +1684,7 @@
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.28515625" customWidth="1"/>
     <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -1515,46 +2713,46 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1604,9 +2802,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2">
         <v>0.79963335294117643</v>
@@ -1654,9 +2852,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2">
         <v>0.78538702941176475</v>
@@ -1704,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1754,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1804,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1856,13 +3054,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2">
         <v>0.63557085294117655</v>
       </c>
       <c r="C8" s="2">
-        <v>0.71000099999999999</v>
+        <v>0.63</v>
       </c>
       <c r="D8" s="2">
         <v>0.52121312121212104</v>
@@ -1904,9 +3102,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2">
         <v>0.65900835294117655</v>
@@ -1954,9 +3152,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2">
         <v>0.77343850000000003</v>
@@ -2004,9 +3202,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2">
         <v>0.71553408823529419</v>
@@ -2054,9 +3252,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2">
         <v>0.775736294117647</v>
@@ -2104,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2154,9 +3352,9 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2">
         <v>0.80790541176470587</v>
@@ -2204,9 +3402,9 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2">
         <v>0.77297894117647059</v>
@@ -2254,7 +3452,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -2304,7 +3502,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -2354,7 +3552,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -2406,7 +3604,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <v>0.70680247058823531</v>
@@ -2454,9 +3652,9 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>0.65900835294117655</v>
@@ -2504,9 +3702,9 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <v>0.7886039411764707</v>
@@ -2554,9 +3752,9 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <v>0.71645320588235295</v>
@@ -2604,9 +3802,9 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <v>0.7274826176470589</v>
@@ -2654,7 +3852,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -2704,9 +3902,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="2">
         <v>0.80101202941176475</v>
@@ -2754,9 +3952,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2">
         <v>0.80285026470588228</v>
@@ -2804,7 +4002,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -2854,7 +4052,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -2904,7 +4102,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
@@ -2956,13 +4154,13 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="2">
         <v>0.76470688235294126</v>
       </c>
       <c r="C30" s="2">
-        <v>0.73000100000000001</v>
+        <v>0.66</v>
       </c>
       <c r="D30" s="2">
         <v>0.57798673975044568</v>
@@ -3004,9 +4202,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="2">
         <v>0.58272158823529419</v>
@@ -3054,9 +4252,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="2">
         <v>0.77114070588235295</v>
@@ -3104,9 +4302,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" s="2">
         <v>0.66865908823529419</v>
@@ -3154,9 +4352,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" s="2">
         <v>0.71783188235294115</v>
@@ -3204,7 +4402,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -3254,9 +4452,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" s="2">
         <v>0.8083649705882352</v>
@@ -3304,9 +4502,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37" s="2">
         <v>0.77849364705882362</v>
@@ -3354,7 +4552,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
@@ -3404,7 +4602,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
@@ -3454,7 +4652,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -3506,7 +4704,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41" s="2">
         <v>0.77160026470588239</v>
@@ -3554,9 +4752,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42" s="2">
         <v>0.69025835294117643</v>
@@ -3604,9 +4802,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43" s="2">
         <v>0.80285026470588239</v>
@@ -3654,9 +4852,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B44" s="2">
         <v>0.64705982352941183</v>
@@ -3704,9 +4902,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45" s="2">
         <v>0.72656350000000014</v>
@@ -3754,7 +4952,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -3804,9 +5002,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B47" s="2">
         <v>0.81250100000000003</v>
@@ -3854,9 +5052,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48" s="2">
         <v>0.77527673529411767</v>
@@ -3904,7 +5102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
@@ -3954,7 +5152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>4</v>
       </c>
@@ -4004,7 +5202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
@@ -4056,13 +5254,13 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B52" s="2">
         <v>0.77849364705882351</v>
       </c>
       <c r="C52" s="2">
-        <v>0.77000100000000005</v>
+        <v>0.72</v>
       </c>
       <c r="D52" s="2">
         <v>0.66087444028520503</v>
@@ -4104,9 +5302,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53" s="2">
         <v>0.71369585294117655</v>
@@ -4154,9 +5352,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B54" s="2">
         <v>0.78722526470588239</v>
@@ -4204,9 +5402,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B55" s="2">
         <v>0.70634291176470587</v>
@@ -4254,9 +5452,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B56" s="2">
         <v>0.80239070588235306</v>
@@ -4304,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
@@ -4354,9 +5552,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B58" s="2">
         <v>0.80239070588235295</v>
@@ -4404,9 +5602,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B59" s="2">
         <v>0.79963335294117643</v>
@@ -4454,7 +5652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>3</v>
       </c>
@@ -4504,7 +5702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>4</v>
       </c>
@@ -4554,7 +5752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
@@ -4606,7 +5804,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B63" s="2">
         <v>0.78906350000000003</v>
@@ -4654,9 +5852,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B64" s="2">
         <v>0.689798794117647</v>
@@ -4704,9 +5902,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B65" s="2">
         <v>0.78171055882352936</v>
@@ -4754,9 +5952,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B66" s="2">
         <v>0.72288702941176475</v>
@@ -4804,9 +6002,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B67" s="2">
         <v>0.55606717647058823</v>
@@ -4854,9 +6052,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B68" s="2">
         <v>0.76057085294117655</v>
@@ -4904,9 +6102,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B69" s="2">
         <v>0.81020320588235295</v>
@@ -4954,7 +6152,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>3</v>
       </c>
@@ -5004,7 +6202,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>4</v>
       </c>
@@ -5054,7 +6252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>2</v>
       </c>
@@ -5106,13 +6304,13 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B73" s="2">
         <v>0.79182085294117643</v>
       </c>
       <c r="C73" s="2">
-        <v>0.77000100000000005</v>
+        <v>0.76</v>
       </c>
       <c r="D73" s="2">
         <v>0.68955893226381504</v>
@@ -5154,9 +6352,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B74" s="2">
         <v>0.80009291176470587</v>
@@ -5204,9 +6402,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B75" s="2">
         <v>0.69577305882352947</v>
@@ -5254,9 +6452,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B76" s="2">
         <v>0.80698629411764711</v>
@@ -5304,9 +6502,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B77" s="2">
         <v>0.68612232352941183</v>
@@ -5354,7 +6552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>5</v>
       </c>
@@ -5404,9 +6602,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B79" s="2">
         <v>0.76057085294117655</v>
@@ -5454,9 +6652,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B80" s="2">
         <v>0.80606717647058823</v>
@@ -5504,7 +6702,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>3</v>
       </c>
@@ -5554,7 +6752,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>4</v>
       </c>
@@ -5604,7 +6802,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>2</v>
       </c>
@@ -5656,13 +6854,13 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B84" s="2">
         <v>0.80147158823529419</v>
       </c>
       <c r="C84" s="2">
-        <v>0.76000100000000004</v>
+        <v>0.77000100000000005</v>
       </c>
       <c r="D84" s="2">
         <v>0.69697069696969716</v>
@@ -5704,9 +6902,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B85" s="2">
         <v>0.48345688235294121</v>
@@ -5754,9 +6952,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B86" s="2">
         <v>0.65257452941176475</v>
@@ -5804,9 +7002,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B87" s="2">
         <v>0.5087326176470589</v>
@@ -5854,9 +7052,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B88" s="2">
         <v>0.73253776470588239</v>
@@ -5904,8 +7102,2814 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0.60018591200165261</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.68666666666666665</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0.5394137452960982</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0.62962197892997329</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.61333333333333329</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0.58541623631481099</v>
+      </c>
+      <c r="F90" s="3">
+        <v>5.8071314650262024E-2</v>
+      </c>
+      <c r="G90" s="3">
+        <v>4.2778649921507095E-2</v>
+      </c>
+      <c r="H90" s="3">
+        <v>6.2030075187969935E-2</v>
+      </c>
+      <c r="I90" s="3">
+        <v>0.6412160823925529</v>
+      </c>
+      <c r="J90" s="3">
+        <v>0.62666666666666671</v>
+      </c>
+      <c r="K90" s="3">
+        <v>0</v>
+      </c>
+      <c r="L90" s="3">
+        <v>0.57932263814616758</v>
+      </c>
+      <c r="M90" s="3">
+        <v>6.8869472759632941E-2</v>
+      </c>
+      <c r="N90" s="3">
+        <v>4.6766614455135413E-2</v>
+      </c>
+      <c r="O90" s="3">
+        <v>6.5656565656565635E-2</v>
+      </c>
+      <c r="P90" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.64222268126420157</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0.68666666666666665</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0.58566052683699743</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" s="3">
+        <v>0.71059698409419536</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0.60245816979962818</v>
+      </c>
+      <c r="F92" s="3">
+        <v>1.8871041239462295E-2</v>
+      </c>
+      <c r="G92" s="3">
+        <v>4.3171114599686033E-3</v>
+      </c>
+      <c r="H92" s="3">
+        <v>3.9473684210526327E-2</v>
+      </c>
+      <c r="I92" s="3">
+        <v>0.70419885125767467</v>
+      </c>
+      <c r="J92" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3">
+        <v>0.58259061200237672</v>
+      </c>
+      <c r="M92" s="3">
+        <v>1.5085061137692722E-2</v>
+      </c>
+      <c r="N92" s="3">
+        <v>2.1033788319534563E-2</v>
+      </c>
+      <c r="O92" s="3">
+        <v>9.5959595959595967E-2</v>
+      </c>
+      <c r="P92" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0.31333333333333335</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0</v>
+      </c>
+      <c r="H93" s="3">
+        <v>0</v>
+      </c>
+      <c r="I93" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J93" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0.54596157818632518</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0.68666666666666665</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0.61338878985937817</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="3">
+        <v>0.6293121255938855</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0.69333333333333336</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0.51642222681264205</v>
+      </c>
+      <c r="F95" s="3">
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="G95" s="3">
+        <v>3.0612244897959183E-2</v>
+      </c>
+      <c r="H95" s="3">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="I95" s="3">
+        <v>0.55238661121014065</v>
+      </c>
+      <c r="J95" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="K95" s="3">
+        <v>0</v>
+      </c>
+      <c r="L95" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M95" s="3">
+        <v>0</v>
+      </c>
+      <c r="N95" s="3">
+        <v>0</v>
+      </c>
+      <c r="O95" s="3">
+        <v>0</v>
+      </c>
+      <c r="P95" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0.64604420574261512</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0.54666666666666663</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0.60627969427804174</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0.11862611073137391</v>
+      </c>
+      <c r="G96" s="3">
+        <v>6.5934065934066033E-2</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0.22556390977443608</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0.63586848880966529</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0.58942364824717763</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0.15954452996787091</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0.15148802864175426</v>
+      </c>
+      <c r="O96" s="3">
+        <v>6.5656565656565635E-2</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0.5145631067961165</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.31333333333333335</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0</v>
+      </c>
+      <c r="G97" s="3">
+        <v>0</v>
+      </c>
+      <c r="H97" s="3">
+        <v>0</v>
+      </c>
+      <c r="I97" s="3">
+        <v>0.58724499900970484</v>
+      </c>
+      <c r="J97" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0.60524684982441646</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0.68666666666666665</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0.56362321834331752</v>
+      </c>
+      <c r="F98" s="3">
+        <v>9.1307814992025588E-3</v>
+      </c>
+      <c r="G98" s="3">
+        <v>1.0989010989011005E-2</v>
+      </c>
+      <c r="H98" s="3">
+        <v>3.9473684210526327E-2</v>
+      </c>
+      <c r="I98" s="3">
+        <v>0.62873836403248162</v>
+      </c>
+      <c r="J98" s="3">
+        <v>0.69333333333333336</v>
+      </c>
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3">
+        <v>0.60130718954248363</v>
+      </c>
+      <c r="M98" s="3">
+        <v>7.1828121027205677E-2</v>
+      </c>
+      <c r="N98" s="3">
+        <v>4.6319087044081469E-2</v>
+      </c>
+      <c r="O98" s="3">
+        <v>5.5555555555555525E-2</v>
+      </c>
+      <c r="P98" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0.54203676926254907</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0.31333333333333335</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0</v>
+      </c>
+      <c r="H99" s="3">
+        <v>0</v>
+      </c>
+      <c r="I99" s="3">
+        <v>0.61249752426223014</v>
+      </c>
+      <c r="J99" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0.5454451559595126</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0.64666666666666661</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0.48822557322867177</v>
+      </c>
+      <c r="F100" s="3">
+        <v>5.9666210982000457E-2</v>
+      </c>
+      <c r="G100" s="3">
+        <v>5.4160125588697025E-2</v>
+      </c>
+      <c r="H100" s="3">
+        <v>6.9548872180451124E-2</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0.6232917409387998</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0.53238265002970886</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0.12286480364283568</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0.11031550682479303</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0.13131313131313133</v>
+      </c>
+      <c r="P100" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B101" s="3">
+        <v>0.61041107209254286</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.68666666666666665</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0.6165577342047931</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B102" s="3">
+        <v>0.5639330716794051</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0.69333333333333336</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0.51642222681264205</v>
+      </c>
+      <c r="F102" s="3">
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="G102" s="3">
+        <v>3.0612244897959183E-2</v>
+      </c>
+      <c r="H102" s="3">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0.46009110714993068</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B103" s="3">
+        <v>0.57901260070233429</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0</v>
+      </c>
+      <c r="E103" s="3">
+        <v>0.53997108035529851</v>
+      </c>
+      <c r="F103" s="3">
+        <v>5.1549327865117345E-2</v>
+      </c>
+      <c r="G103" s="3">
+        <v>5.0627943485086369E-2</v>
+      </c>
+      <c r="H103" s="3">
+        <v>3.3834586466165439E-2</v>
+      </c>
+      <c r="I103" s="3">
+        <v>0.5490196078431373</v>
+      </c>
+      <c r="J103" s="3">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="K103" s="3">
+        <v>0</v>
+      </c>
+      <c r="L103" s="3">
+        <v>0.54218657159833628</v>
+      </c>
+      <c r="M103" s="3">
+        <v>5.1675219009315099E-2</v>
+      </c>
+      <c r="N103" s="3">
+        <v>7.0709330946520432E-2</v>
+      </c>
+      <c r="O103" s="3">
+        <v>1.0101010101010055E-2</v>
+      </c>
+      <c r="P103" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104" s="3">
+        <v>0.46013220409006406</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0.52706052468498243</v>
+      </c>
+      <c r="F104" s="3">
+        <v>1.6541353383458645E-2</v>
+      </c>
+      <c r="G104" s="3">
+        <v>1.1381475667189951E-2</v>
+      </c>
+      <c r="H104" s="3">
+        <v>1.8796992481203006E-2</v>
+      </c>
+      <c r="I104" s="3">
+        <v>0.51841948900772428</v>
+      </c>
+      <c r="J104" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="K104" s="3">
+        <v>0</v>
+      </c>
+      <c r="L104" s="3">
+        <v>0.57308377896613194</v>
+      </c>
+      <c r="M104" s="3">
+        <v>2.731259968102074E-2</v>
+      </c>
+      <c r="N104" s="3">
+        <v>9.3980756321324771E-3</v>
+      </c>
+      <c r="O104" s="3">
+        <v>1.5151515151515166E-2</v>
+      </c>
+      <c r="P104" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D105" s="3">
+        <v>0</v>
+      </c>
+      <c r="E105" s="3">
+        <v>0</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K105" s="3">
+        <v>0</v>
+      </c>
+      <c r="L105" s="3">
+        <v>0</v>
+      </c>
+      <c r="M105" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="N105" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="O105" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="P105" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0</v>
+      </c>
+      <c r="E106" s="3">
+        <v>0</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K106" s="3">
+        <v>0</v>
+      </c>
+      <c r="L106" s="3">
+        <v>0</v>
+      </c>
+      <c r="M106" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="N106" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="O106" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="P106" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0</v>
+      </c>
+      <c r="E107" s="3">
+        <v>0</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K107" s="3">
+        <v>0</v>
+      </c>
+      <c r="L107" s="3">
+        <v>0</v>
+      </c>
+      <c r="M107" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="N107" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="O107" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="P107" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0</v>
+      </c>
+      <c r="E108" s="3">
+        <v>0</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K108" s="3">
+        <v>0</v>
+      </c>
+      <c r="L108" s="3">
+        <v>0</v>
+      </c>
+      <c r="M108" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="N108" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O108" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="P108" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0</v>
+      </c>
+      <c r="E109" s="3">
+        <v>0</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K109" s="3">
+        <v>0</v>
+      </c>
+      <c r="L109" s="3">
+        <v>0</v>
+      </c>
+      <c r="M109" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N109" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="O109" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="P109" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+      <c r="E110" s="3">
+        <v>0</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K110" s="3">
+        <v>0</v>
+      </c>
+      <c r="L110" s="3">
+        <v>0</v>
+      </c>
+      <c r="M110" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="N110" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="O110" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="P110" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0</v>
+      </c>
+      <c r="E111" s="3">
+        <v>0</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K111" s="3">
+        <v>0</v>
+      </c>
+      <c r="L111" s="3">
+        <v>0</v>
+      </c>
+      <c r="M111" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="N111" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="O111" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="P111" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0</v>
+      </c>
+      <c r="F112" s="4">
+        <v>0.86546000000000001</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K112" s="3">
+        <v>0</v>
+      </c>
+      <c r="L112" s="3">
+        <v>0</v>
+      </c>
+      <c r="M112" s="4">
+        <v>1.2544</v>
+      </c>
+      <c r="N112" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="O112" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="P112" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0</v>
+      </c>
+      <c r="E113" s="3">
+        <v>0</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K113" s="3">
+        <v>0</v>
+      </c>
+      <c r="L113" s="3">
+        <v>0</v>
+      </c>
+      <c r="M113" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="N113" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="O113" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="P113" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0</v>
+      </c>
+      <c r="F114" s="4">
+        <v>5.4539999999999998E-2</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K114" s="3">
+        <v>0</v>
+      </c>
+      <c r="L114" s="3">
+        <v>0</v>
+      </c>
+      <c r="M114" s="4">
+        <v>9.5978999999999992</v>
+      </c>
+      <c r="N114" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="O114" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="P114" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K115" s="3">
+        <v>0</v>
+      </c>
+      <c r="L115" s="3">
+        <v>0</v>
+      </c>
+      <c r="M115" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="N115" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="O115" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="P115" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0</v>
+      </c>
+      <c r="F116" s="4">
+        <v>0.56564599999999998</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K116" s="3">
+        <v>0</v>
+      </c>
+      <c r="L116" s="3">
+        <v>0</v>
+      </c>
+      <c r="M116" s="4">
+        <v>8.2446459999999995</v>
+      </c>
+      <c r="N116" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="O116" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="P116" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0</v>
+      </c>
+      <c r="E117" s="3">
+        <v>0</v>
+      </c>
+      <c r="F117" s="4">
+        <v>9.5656499999999998</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K117" s="3">
+        <v>0</v>
+      </c>
+      <c r="L117" s="3">
+        <v>0</v>
+      </c>
+      <c r="M117" s="4">
+        <v>69.566446459999995</v>
+      </c>
+      <c r="N117" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="O117" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="P117" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0</v>
+      </c>
+      <c r="E118" s="3">
+        <v>0</v>
+      </c>
+      <c r="F118" s="4">
+        <v>1.5653231299999999</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H118" s="4">
+        <v>0.46646549999999998</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K118" s="3">
+        <v>0</v>
+      </c>
+      <c r="L118" s="3">
+        <v>0</v>
+      </c>
+      <c r="M118" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="N118" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="O118" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="P118" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0</v>
+      </c>
+      <c r="E119" s="3">
+        <v>0</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K119" s="3">
+        <v>0</v>
+      </c>
+      <c r="L119" s="3">
+        <v>0</v>
+      </c>
+      <c r="M119" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N119" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="O119" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="P119" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0</v>
+      </c>
+      <c r="E120" s="3">
+        <v>0</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K120" s="3">
+        <v>0</v>
+      </c>
+      <c r="L120" s="3">
+        <v>0</v>
+      </c>
+      <c r="M120" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="N120" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="O120" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="P120" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0</v>
+      </c>
+      <c r="E121" s="3">
+        <v>0</v>
+      </c>
+      <c r="F121" s="4">
+        <v>2.1254</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H121" s="4">
+        <v>0.48879878999999998</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K121" s="3">
+        <v>0</v>
+      </c>
+      <c r="L121" s="3">
+        <v>0</v>
+      </c>
+      <c r="M121" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="N121" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="O121" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="P121" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0</v>
+      </c>
+      <c r="E122" s="3">
+        <v>0</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K122" s="3">
+        <v>0</v>
+      </c>
+      <c r="L122" s="3">
+        <v>0</v>
+      </c>
+      <c r="M122" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N122" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="O122" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="P122" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0</v>
+      </c>
+      <c r="E123" s="3">
+        <v>0</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K123" s="3">
+        <v>0</v>
+      </c>
+      <c r="L123" s="3">
+        <v>0</v>
+      </c>
+      <c r="M123" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="N123" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="O123" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="P123" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0</v>
+      </c>
+      <c r="E124" s="3">
+        <v>0</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K124" s="3">
+        <v>0</v>
+      </c>
+      <c r="L124" s="3">
+        <v>0</v>
+      </c>
+      <c r="M124" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="N124" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="O124" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="P124" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D125" s="3">
+        <v>0</v>
+      </c>
+      <c r="E125" s="3">
+        <v>0</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="K125" s="3">
+        <v>0</v>
+      </c>
+      <c r="L125" s="3">
+        <v>0</v>
+      </c>
+      <c r="M125" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="N125" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="O125" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="P125" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D126" s="3">
+        <v>0</v>
+      </c>
+      <c r="E126" s="3">
+        <v>0</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K126" s="3">
+        <v>0</v>
+      </c>
+      <c r="L126" s="3">
+        <v>0</v>
+      </c>
+      <c r="M126" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="N126" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="O126" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="P126" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D127" s="3">
+        <v>0</v>
+      </c>
+      <c r="E127" s="3">
+        <v>0</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="K127" s="3">
+        <v>0</v>
+      </c>
+      <c r="L127" s="3">
+        <v>0</v>
+      </c>
+      <c r="M127" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="N127" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="O127" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="P127" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D128" s="3">
+        <v>0</v>
+      </c>
+      <c r="E128" s="3">
+        <v>0</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="K128" s="3">
+        <v>0</v>
+      </c>
+      <c r="L128" s="3">
+        <v>0</v>
+      </c>
+      <c r="M128" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="N128" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="O128" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="P128" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0</v>
+      </c>
+      <c r="E129" s="3">
+        <v>0</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="K129" s="3">
+        <v>0</v>
+      </c>
+      <c r="L129" s="3">
+        <v>0</v>
+      </c>
+      <c r="M129" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="N129" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="O129" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="P129" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D130" s="3">
+        <v>0</v>
+      </c>
+      <c r="E130" s="3">
+        <v>0</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="K130" s="3">
+        <v>0</v>
+      </c>
+      <c r="L130" s="3">
+        <v>0</v>
+      </c>
+      <c r="M130" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="N130" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="O130" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="P130" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D131" s="3">
+        <v>0</v>
+      </c>
+      <c r="E131" s="3">
+        <v>0</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="K131" s="3">
+        <v>0</v>
+      </c>
+      <c r="L131" s="3">
+        <v>0</v>
+      </c>
+      <c r="M131" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="N131" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="O131" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="P131" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D132" s="3">
+        <v>0</v>
+      </c>
+      <c r="E132" s="3">
+        <v>0</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="K132" s="3">
+        <v>0</v>
+      </c>
+      <c r="L132" s="3">
+        <v>0</v>
+      </c>
+      <c r="M132" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="N132" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="O132" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="P132" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D133" s="3">
+        <v>0</v>
+      </c>
+      <c r="E133" s="3">
+        <v>0</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="K133" s="3">
+        <v>0</v>
+      </c>
+      <c r="L133" s="3">
+        <v>0</v>
+      </c>
+      <c r="M133" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="N133" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="O133" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="P133" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D134" s="3">
+        <v>0</v>
+      </c>
+      <c r="E134" s="3">
+        <v>0</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="K134" s="3">
+        <v>0</v>
+      </c>
+      <c r="L134" s="3">
+        <v>0</v>
+      </c>
+      <c r="M134" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="N134" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="O134" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="P134" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D135" s="3">
+        <v>0</v>
+      </c>
+      <c r="E135" s="3">
+        <v>0</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="K135" s="3">
+        <v>0</v>
+      </c>
+      <c r="L135" s="3">
+        <v>0</v>
+      </c>
+      <c r="M135" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="N135" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="O135" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="P135" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D136" s="3">
+        <v>0</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="K136" s="3">
+        <v>0</v>
+      </c>
+      <c r="L136" s="3">
+        <v>0</v>
+      </c>
+      <c r="M136" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="N136" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="O136" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="P136" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D137" s="3">
+        <v>0</v>
+      </c>
+      <c r="E137" s="3">
+        <v>0</v>
+      </c>
+      <c r="F137" s="4">
+        <v>9.5646459999999998</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="K137" s="3">
+        <v>0</v>
+      </c>
+      <c r="L137" s="3">
+        <v>0</v>
+      </c>
+      <c r="M137" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="N137" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="O137" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="P137" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D138" s="3">
+        <v>0</v>
+      </c>
+      <c r="E138" s="3">
+        <v>0</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="K138" s="3">
+        <v>0</v>
+      </c>
+      <c r="L138" s="3">
+        <v>0</v>
+      </c>
+      <c r="M138" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="N138" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="O138" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="P138" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D139" s="3">
+        <v>0</v>
+      </c>
+      <c r="E139" s="3">
+        <v>0</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="K139" s="3">
+        <v>0</v>
+      </c>
+      <c r="L139" s="3">
+        <v>0</v>
+      </c>
+      <c r="M139" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="N139" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="O139" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="P139" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D140" s="3">
+        <v>0</v>
+      </c>
+      <c r="E140" s="3">
+        <v>0</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="K140" s="3">
+        <v>0</v>
+      </c>
+      <c r="L140" s="3">
+        <v>0</v>
+      </c>
+      <c r="M140" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="N140" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="O140" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="P140" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D141" s="3">
+        <v>0</v>
+      </c>
+      <c r="E141" s="3">
+        <v>0</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="K141" s="3">
+        <v>0</v>
+      </c>
+      <c r="L141" s="3">
+        <v>0</v>
+      </c>
+      <c r="M141" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="N141" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="O141" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="P141" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0</v>
+      </c>
+      <c r="E142" s="3">
+        <v>0</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="K142" s="3">
+        <v>0</v>
+      </c>
+      <c r="L142" s="3">
+        <v>0</v>
+      </c>
+      <c r="M142" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="N142" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="O142" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="P142" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D143" s="3">
+        <v>0</v>
+      </c>
+      <c r="E143" s="3">
+        <v>0</v>
+      </c>
+      <c r="F143" s="4">
+        <v>0.47677656643999999</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H143" s="4">
+        <v>0.15459977999999999</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="K143" s="3">
+        <v>0</v>
+      </c>
+      <c r="L143" s="3">
+        <v>0</v>
+      </c>
+      <c r="M143" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="N143" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="O143" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="P143" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D144" s="3">
+        <v>0</v>
+      </c>
+      <c r="E144" s="3">
+        <v>0</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="K144" s="3">
+        <v>0</v>
+      </c>
+      <c r="L144" s="3">
+        <v>0</v>
+      </c>
+      <c r="M144" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="N144" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="O144" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="P144" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P88" xr:uid="{77026C95-EB50-4C24-AC05-081AE5A06FBA}"/>
+  <autoFilter ref="A1:P144" xr:uid="{77026C95-EB50-4C24-AC05-081AE5A06FBA}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="FAIR-scalar"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P8:P90">
     <sortCondition ref="P1:P90"/>
   </sortState>
